--- a/New Microsoft Office Excel Worksheet.xlsx
+++ b/New Microsoft Office Excel Worksheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>step</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>ff</t>
+  </si>
+  <si>
+    <t>dfsdfd</t>
   </si>
 </sst>
 </file>
@@ -395,7 +398,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -442,8 +445,8 @@
       <c r="C2">
         <v>12</v>
       </c>
-      <c r="E2">
-        <v>23</v>
+      <c r="E2" t="s">
+        <v>15</v>
       </c>
       <c r="F2">
         <v>23</v>

--- a/New Microsoft Office Excel Worksheet.xlsx
+++ b/New Microsoft Office Excel Worksheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>step</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>dfsdfd</t>
+  </si>
+  <si>
+    <t>123gdfsg</t>
   </si>
 </sst>
 </file>
@@ -398,7 +401,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F3" sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -448,8 +451,8 @@
       <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="F2">
-        <v>23</v>
+      <c r="F2" t="s">
+        <v>16</v>
       </c>
       <c r="G2">
         <v>23</v>

--- a/New Microsoft Office Excel Worksheet.xlsx
+++ b/New Microsoft Office Excel Worksheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>step</t>
   </si>
@@ -67,6 +67,27 @@
   </si>
   <si>
     <t>123gdfsg</t>
+  </si>
+  <si>
+    <t>ssfasdf</t>
+  </si>
+  <si>
+    <t>asdfsdf</t>
+  </si>
+  <si>
+    <t>dsaff</t>
+  </si>
+  <si>
+    <t>sdfsda</t>
+  </si>
+  <si>
+    <t>fasd</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>fas</t>
   </si>
 </sst>
 </file>
@@ -398,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="A1:J3"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -497,6 +518,38 @@
       </c>
       <c r="J3" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/New Microsoft Office Excel Worksheet.xlsx
+++ b/New Microsoft Office Excel Worksheet.xlsx
@@ -60,9 +60,6 @@
     <t>df</t>
   </si>
   <si>
-    <t>ff</t>
-  </si>
-  <si>
     <t>dfsdfd</t>
   </si>
   <si>
@@ -88,6 +85,9 @@
   </si>
   <si>
     <t>fas</t>
+  </si>
+  <si>
+    <t>fdsfs</t>
   </si>
 </sst>
 </file>
@@ -422,7 +422,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -470,10 +470,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
         <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
       </c>
       <c r="G2">
         <v>23</v>
@@ -508,7 +508,7 @@
         <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -522,22 +522,22 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
         <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -546,10 +546,10 @@
         <v>4</v>
       </c>
       <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
         <v>22</v>
-      </c>
-      <c r="J4" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/New Microsoft Office Excel Worksheet.xlsx
+++ b/New Microsoft Office Excel Worksheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>step</t>
   </si>
@@ -87,7 +87,34 @@
     <t>fas</t>
   </si>
   <si>
-    <t>fdsfs</t>
+    <t>asdfsdfsdfsdfsdfsdfsdf</t>
+  </si>
+  <si>
+    <t>sdfsadfsadf</t>
+  </si>
+  <si>
+    <t>sdafsdaff</t>
+  </si>
+  <si>
+    <t>afsdfdf</t>
+  </si>
+  <si>
+    <t>dasf</t>
+  </si>
+  <si>
+    <t>dsfasf</t>
+  </si>
+  <si>
+    <t>dfsdf</t>
+  </si>
+  <si>
+    <t>dfasf</t>
+  </si>
+  <si>
+    <t>dsfasdf</t>
+  </si>
+  <si>
+    <t>fasdf</t>
   </si>
 </sst>
 </file>
@@ -419,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -550,6 +577,40 @@
       </c>
       <c r="J4" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="H6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/New Microsoft Office Excel Worksheet.xlsx
+++ b/New Microsoft Office Excel Worksheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>step</t>
   </si>
@@ -63,9 +63,6 @@
     <t>dfsdfd</t>
   </si>
   <si>
-    <t>123gdfsg</t>
-  </si>
-  <si>
     <t>ssfasdf</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>sdfsda</t>
   </si>
   <si>
-    <t>fasd</t>
-  </si>
-  <si>
     <t>s</t>
   </si>
   <si>
@@ -88,6 +82,15 @@
   </si>
   <si>
     <t>fdsfs</t>
+  </si>
+  <si>
+    <t>sdfadsfa</t>
+  </si>
+  <si>
+    <t>dfsdf</t>
+  </si>
+  <si>
+    <t>fsdfdsf</t>
   </si>
 </sst>
 </file>
@@ -419,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -473,7 +476,7 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G2">
         <v>23</v>
@@ -508,7 +511,7 @@
         <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -522,22 +525,22 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -546,10 +549,18 @@
         <v>4</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/New Microsoft Office Excel Worksheet.xlsx
+++ b/New Microsoft Office Excel Worksheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>step</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>fsdfdsf</t>
+  </si>
+  <si>
+    <t>sdfsdfsd</t>
   </si>
 </sst>
 </file>
@@ -425,7 +428,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -499,7 +502,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>

--- a/New Microsoft Office Excel Worksheet.xlsx
+++ b/New Microsoft Office Excel Worksheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>step</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>sdfsdfsd</t>
+  </si>
+  <si>
+    <t>Dinesh</t>
   </si>
 </sst>
 </file>
@@ -428,7 +431,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -466,8 +469,8 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>26</v>
       </c>
       <c r="B2">
         <v>2</v>

--- a/New Microsoft Office Excel Worksheet.xlsx
+++ b/New Microsoft Office Excel Worksheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>step</t>
   </si>
@@ -111,10 +111,19 @@
     <t>dfasf</t>
   </si>
   <si>
-    <t>dsfasdf</t>
-  </si>
-  <si>
     <t>fasdf</t>
+  </si>
+  <si>
+    <t>asf</t>
+  </si>
+  <si>
+    <t>safd</t>
+  </si>
+  <si>
+    <t>sdfa</t>
+  </si>
+  <si>
+    <t>Dinesh</t>
   </si>
 </sst>
 </file>
@@ -449,7 +458,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -602,15 +611,36 @@
         <v>30</v>
       </c>
       <c r="I5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" t="s">
         <v>31</v>
-      </c>
-      <c r="J5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:10">
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/New Microsoft Office Excel Worksheet.xlsx
+++ b/New Microsoft Office Excel Worksheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>step</t>
   </si>
@@ -78,9 +78,6 @@
     <t>sdfsda</t>
   </si>
   <si>
-    <t>fasd</t>
-  </si>
-  <si>
     <t>s</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
     <t>dasf</t>
   </si>
   <si>
-    <t>dsfasf</t>
-  </si>
-  <si>
     <t>dfsdf</t>
   </si>
   <si>
@@ -124,6 +118,9 @@
   </si>
   <si>
     <t>Dinesh</t>
+  </si>
+  <si>
+    <t>asdfasdfsdf</t>
   </si>
 </sst>
 </file>
@@ -458,7 +455,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -541,10 +538,10 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -573,7 +570,7 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -582,65 +579,65 @@
         <v>4</v>
       </c>
       <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
         <v>21</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>28</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" t="s">
         <v>29</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
         <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
